--- a/src/test/java/day11_webtable_exelOtomation/ulkeler.xlsx
+++ b/src/test/java/day11_webtable_exelOtomation/ulkeler.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="576">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2178,7 +2178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:E195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
@@ -4896,6 +4896,14 @@
         <v>574</v>
       </c>
       <c r="B194" t="s" s="0">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="B195" t="s" s="0">
         <v>575</v>
       </c>
     </row>
